--- a/data/output/FV2304_FV2210/REMADV/33002.xlsx
+++ b/data/output/FV2304_FV2210/REMADV/33002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="225">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="225">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -807,6 +807,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U97" totalsRowShown="0">
+  <autoFilter ref="A1:U97"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1096,7 +1126,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5594,5 +5627,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/REMADV/33002.xlsx
+++ b/data/output/FV2304_FV2210/REMADV/33002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2386" uniqueCount="319">
   <si>
     <t>#</t>
   </si>
@@ -5811,9 +5811,7 @@
         <v>192</v>
       </c>
       <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="5" t="s">
         <v>37</v>
       </c>
@@ -5865,9 +5863,7 @@
         <v>192</v>
       </c>
       <c r="K89" s="5"/>
-      <c r="L89" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="5" t="s">
         <v>37</v>
       </c>
@@ -5892,44 +5888,42 @@
       <c r="V89" s="5"/>
     </row>
     <row r="90" spans="1:22">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="5"/>
-      <c r="D90" s="5" t="s">
+      <c r="C90" s="2"/>
+      <c r="D90" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5" t="s">
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K90" s="5"/>
-      <c r="L90" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M90" s="5" t="s">
+      <c r="K90" s="2"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N90" s="5"/>
-      <c r="O90" s="5" t="s">
+      <c r="N90" s="2"/>
+      <c r="O90" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P90" s="5"/>
-      <c r="Q90" s="5"/>
-      <c r="R90" s="5"/>
-      <c r="S90" s="5"/>
-      <c r="T90" s="5"/>
-      <c r="U90" s="5" t="s">
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="V90" s="5"/>
+      <c r="V90" s="2"/>
     </row>
     <row r="91" spans="1:22">
       <c r="A91" s="5" t="s">
@@ -5957,9 +5951,7 @@
         <v>192</v>
       </c>
       <c r="K91" s="5"/>
-      <c r="L91" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="L91" s="4"/>
       <c r="M91" s="5" t="s">
         <v>38</v>
       </c>
@@ -5984,44 +5976,42 @@
       <c r="V91" s="5"/>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C92" s="5"/>
-      <c r="D92" s="5" t="s">
+      <c r="C92" s="2"/>
+      <c r="D92" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5" t="s">
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K92" s="5"/>
-      <c r="L92" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M92" s="5" t="s">
+      <c r="K92" s="2"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N92" s="5"/>
-      <c r="O92" s="5" t="s">
+      <c r="N92" s="2"/>
+      <c r="O92" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5" t="s">
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="V92" s="5"/>
+      <c r="V92" s="2"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="5" t="s">
@@ -6049,9 +6039,7 @@
         <v>192</v>
       </c>
       <c r="K93" s="5"/>
-      <c r="L93" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="L93" s="4"/>
       <c r="M93" s="5" t="s">
         <v>39</v>
       </c>
@@ -6101,9 +6089,7 @@
       <c r="K94" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="L94" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="L94" s="4"/>
       <c r="M94" s="5" t="s">
         <v>39</v>
       </c>
@@ -6128,44 +6114,42 @@
       </c>
     </row>
     <row r="95" spans="1:22">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5" t="s">
+      <c r="C95" s="2"/>
+      <c r="D95" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5" t="s">
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M95" s="5" t="s">
+      <c r="K95" s="2"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5" t="s">
+      <c r="N95" s="2"/>
+      <c r="O95" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5" t="s">
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="V95" s="5"/>
+      <c r="V95" s="2"/>
     </row>
     <row r="96" spans="1:22">
       <c r="A96" s="5" t="s">
@@ -6191,9 +6175,7 @@
         <v>192</v>
       </c>
       <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="5" t="s">
         <v>40</v>
       </c>
@@ -6239,9 +6221,7 @@
         <v>192</v>
       </c>
       <c r="K97" s="5"/>
-      <c r="L97" s="7" t="s">
-        <v>215</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>40</v>
       </c>

--- a/data/output/FV2304_FV2210/REMADV/33002.xlsx
+++ b/data/output/FV2304_FV2210/REMADV/33002.xlsx
@@ -1544,7 +1544,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2014,7 +2014,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2340,7 +2340,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2688,7 +2688,7 @@
         <v>206</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2" t="s">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="K37" s="2"/>
       <c r="L37" s="4"/>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N37" s="2" t="s">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="K44" s="2"/>
       <c r="L44" s="4"/>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N44" s="2" t="s">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4176,7 +4176,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4326,7 +4326,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -4476,7 +4476,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -4682,7 +4682,7 @@
         <v>210</v>
       </c>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -4832,7 +4832,7 @@
       </c>
       <c r="K69" s="2"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5736,23 +5736,23 @@
       </c>
     </row>
     <row r="87" spans="1:22">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
       <c r="J87" s="6" t="s">
         <v>204</v>
       </c>
@@ -5762,20 +5762,20 @@
       <c r="L87" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="M87" s="5" t="s">
+      <c r="M87" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N87" s="5" t="s">
+      <c r="N87" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O87" s="5" t="s">
+      <c r="O87" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
       <c r="U87" s="6" t="s">
         <v>225</v>
       </c>
@@ -5908,7 +5908,7 @@
       </c>
       <c r="K90" s="2"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N90" s="2"/>
@@ -5996,7 +5996,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N92" s="2"/>
@@ -6134,7 +6134,7 @@
       </c>
       <c r="K95" s="2"/>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N95" s="2"/>
